--- a/report/Gantt-Chart-Template-Planio.xlsx
+++ b/report/Gantt-Chart-Template-Planio.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Users\Sam\Work\3yp git\3YP\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,121 +24,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t xml:space="preserve">Design and Implementation of a Mesh Network for IP-based, </t>
   </si>
   <si>
-    <t xml:space="preserve">Low Power, Wireless Communication in IoT Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Southampton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samuel Kendall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TASK NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUE DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DURATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRINT/MILESTONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Working CoAP Resources with Multi-node Hopping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exam Revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Server and Database to Receive Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Server and Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Low Power Mode (idle-wait)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Low Power Mode to Network (idle-wait)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test CoAP Nodes with Low Power Mode</t>
+    <t>Low Power, Wireless Communication in IoT Systems</t>
+  </si>
+  <si>
+    <t>University of Southampton</t>
+  </si>
+  <si>
+    <t>Samuel Kendall</t>
+  </si>
+  <si>
+    <t>TASK NAME</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>DUE DATE</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>SPRINT/MILESTONE</t>
+  </si>
+  <si>
+    <t>Working CoAP Resources with Multi-node Hopping</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Exam Revision</t>
+  </si>
+  <si>
+    <t>Exams</t>
+  </si>
+  <si>
+    <t>Implement Server and Database to Receive Data</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Test Server and Database</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
   <si>
     <t xml:space="preserve">Design Network Node Circuit with Low Power </t>
   </si>
   <si>
-    <t xml:space="preserve">Working Network Node Prototype with Breadboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design PCB to Implement Circuit Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Testing of Nodes on PCB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct and Test PCBs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write Final Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report</t>
+    <t>Design PCB to Implement Circuit Design</t>
+  </si>
+  <si>
+    <t>Construct and Test PCBs</t>
+  </si>
+  <si>
+    <t>Write Final Report</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Coursework Week</t>
+  </si>
+  <si>
+    <t>Coursework</t>
+  </si>
+  <si>
+    <t>Link nodes and Server (if time allows)</t>
+  </si>
+  <si>
+    <t>Design Low Power Mode (MAC layer)</t>
+  </si>
+  <si>
+    <t>Implement Low Power Mode to Network (MAC layer)</t>
+  </si>
+  <si>
+    <t>Test CoAP devboards with Low Power Mode</t>
+  </si>
+  <si>
+    <t>Add Support for SAMR30 Boards</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="D/M/YY"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="24"/>
@@ -154,11 +143,10 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri Bold"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF72A93C"/>
       <name val="Calibri"/>
@@ -175,27 +163,9 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Georgia"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -254,148 +224,109 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="4">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -454,15 +385,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFCCCCCC"/>
+      <color rgb="FF0066B3"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -471,7 +424,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -479,7 +432,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-GB" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -490,6 +443,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -500,6 +454,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -508,15 +463,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Start Dates"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Start Dates</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Start Dates</c:v>
           </c:tx>
           <c:spPr>
             <a:noFill/>
@@ -526,14 +473,26 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="D/M/YY" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -550,40 +509,40 @@
                   <c:v>Exams</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Design Low Power Mode (MAC layer)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Implement Low Power Mode to Network (MAC layer)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Test CoAP devboards with Low Power Mode</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Add Support for SAMR30 Boards</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Design Network Node Circuit with Low Power </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Design PCB to Implement Circuit Design</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Coursework Week</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Construct and Test PCBs</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Implement Server and Database to Receive Data</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>Test Server and Database</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Design Low Power Mode (idle-wait)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Implement Low Power Mode to Network (idle-wait)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Test CoAP Nodes with Low Power Mode</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Design Network Node Circuit with Low Power </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Working Network Node Prototype with Breadboard</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Design PCB to Implement Circuit Design</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Power Testing of Nodes on PCB</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Construct and Test PCBs</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Link nodes and Server (if time allows)</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Write Final Report</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -592,7 +551,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$6:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43813</c:v>
@@ -607,37 +566,37 @@
                   <c:v>43854</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>43864</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43854</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>43857</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43872</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,19 +606,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Duration"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Duration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Duration</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:srgbClr val="ED7D31"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -669,9 +620,10 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="87d1d1"/>
+                <a:srgbClr val="87D1D1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -681,9 +633,10 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0066b3"/>
+                <a:srgbClr val="0066B3"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -693,9 +646,10 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0066b3"/>
+                <a:srgbClr val="0066B3"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -705,9 +659,10 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="cccccc"/>
+                <a:srgbClr val="CCCCCC"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -717,9 +672,10 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="faa61a"/>
+                <a:srgbClr val="FAA61A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -729,9 +685,10 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="87d1d1"/>
+                <a:srgbClr val="87D1D1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -741,9 +698,10 @@
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="cccccc"/>
+                <a:srgbClr val="CCCCCC"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -753,9 +711,10 @@
           <c:dPt>
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="faa61a"/>
+                <a:srgbClr val="FAA61A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -765,9 +724,10 @@
           <c:dPt>
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="87d1d1"/>
+                <a:srgbClr val="87D1D1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -777,9 +737,10 @@
           <c:dPt>
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="87d1d1"/>
+                <a:srgbClr val="87D1D1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -789,9 +750,10 @@
           <c:dPt>
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="87d1d1"/>
+                <a:srgbClr val="0066B3"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -801,9 +763,10 @@
           <c:dPt>
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="faa61a"/>
+                <a:srgbClr val="FAA61A"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -813,9 +776,10 @@
           <c:dPt>
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="faa61a"/>
+                <a:srgbClr val="CCCCCC"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -825,9 +789,10 @@
           <c:dPt>
             <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a3238e"/>
+                <a:srgbClr val="A3238E"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -837,6 +802,7 @@
           <c:dPt>
             <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004259"/>
@@ -847,149 +813,26 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="D/M/YY" sourceLinked="1"/>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1006,40 +849,40 @@
                   <c:v>Exams</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Design Low Power Mode (MAC layer)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Implement Low Power Mode to Network (MAC layer)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Test CoAP devboards with Low Power Mode</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Add Support for SAMR30 Boards</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Design Network Node Circuit with Low Power </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Design PCB to Implement Circuit Design</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Coursework Week</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Construct and Test PCBs</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Implement Server and Database to Receive Data</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>Test Server and Database</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Design Low Power Mode (idle-wait)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Implement Low Power Mode to Network (idle-wait)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Test CoAP Nodes with Low Power Mode</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Design Network Node Circuit with Low Power </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Working Network Node Prototype with Breadboard</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Design PCB to Implement Circuit Design</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Power Testing of Nodes on PCB</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Construct and Test PCBs</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Link nodes and Server (if time allows)</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Write Final Report</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1048,9 +891,9 @@
             <c:numRef>
               <c:f>Sheet1!$D$6:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1060,62 +903,70 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="25"/>
         <c:overlap val="100"/>
-        <c:axId val="85692650"/>
-        <c:axId val="70571642"/>
+        <c:axId val="458672688"/>
+        <c:axId val="458678960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85692650"/>
+        <c:axId val="458672688"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1127,7 +978,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1137,23 +988,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70571642"/>
+        <c:crossAx val="458678960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70571642"/>
+        <c:axId val="458678960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43952"/>
@@ -1165,7 +1018,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1175,12 +1028,12 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="dddddd"/>
+                <a:srgbClr val="DDDDDD"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="D/M/YY" sourceLinked="0"/>
+        <c:numFmt formatCode="d/m/yy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1194,17 +1047,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85692650"/>
+        <c:crossAx val="458672688"/>
         <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
@@ -1216,23 +1071,29 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1246,14 +1107,14 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11722320" y="1742040"/>
-        <a:ext cx="15678720" cy="7950600"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1266,30 +1127,290 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF8FAADC"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q36" activeCellId="0" sqref="Q36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="6" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="8.36"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="1020" width="10.5" customWidth="1"/>
+    <col min="1021" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,7 +1433,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:19" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1335,7 +1456,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:19" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1358,7 +1479,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1502,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1398,298 +1519,304 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>43813</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>43836</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <f aca="false">C6-B6</f>
+      <c r="D6" s="7">
+        <f>C6-B6</f>
         <v>23</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="6">
         <v>43836</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>43843</v>
       </c>
-      <c r="D7" s="9" t="n">
-        <f aca="false">(C7-B7)</f>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:D8" si="0">(C7-B7)</f>
         <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="6">
         <v>43843</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>43854</v>
       </c>
-      <c r="D8" s="9" t="n">
-        <f aca="false">(C8-B8)</f>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6">
         <v>43854</v>
       </c>
-      <c r="C9" s="6" t="n">
-        <v>43862</v>
-      </c>
-      <c r="D9" s="9" t="n">
-        <f aca="false">(C9-B9)</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="6">
+        <v>43864</v>
+      </c>
+      <c r="D9" s="9">
+        <f>(C9-B9)</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6">
+        <v>43864</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43874</v>
+      </c>
+      <c r="D10" s="9">
+        <f>(C10-B10)</f>
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>43857</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>43863</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <f aca="false">(C10-B10)</f>
-        <v>6</v>
-      </c>
-      <c r="E10" s="12" t="s">
+    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6">
+        <v>43874</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43884</v>
+      </c>
+      <c r="D11" s="9">
+        <f>(C11-B11)</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>43862</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>43872</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <f aca="false">(C11-B11)</f>
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>43872</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>43882</v>
-      </c>
-      <c r="D12" s="9" t="n">
-        <f aca="false">(C12-B12)</f>
-        <v>10</v>
+    <row r="12" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6">
+        <v>43884</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43891</v>
+      </c>
+      <c r="D12" s="9">
+        <f>(C12-B12)</f>
+        <v>7</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>43879</v>
-      </c>
-      <c r="C13" s="6" t="n">
-        <v>43889</v>
-      </c>
-      <c r="D13" s="9" t="n">
-        <f aca="false">(C13-B13)</f>
+        <v>17</v>
+      </c>
+      <c r="B13" s="6">
+        <v>43898</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43901</v>
+      </c>
+      <c r="D13" s="9">
+        <f>(C13-B13)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>43889</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>43896</v>
-      </c>
-      <c r="D14" s="9" t="n">
-        <f aca="false">(C14-B14)</f>
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>43901</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43913</v>
+      </c>
+      <c r="D14" s="9">
+        <f>(C14-B14)</f>
+        <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>43896</v>
-      </c>
-      <c r="C15" s="6" t="n">
-        <v>43903</v>
-      </c>
-      <c r="D15" s="9" t="n">
-        <f aca="false">(C15-B15)</f>
+    <row r="15" spans="1:19" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43913</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43920</v>
+      </c>
+      <c r="D15" s="9">
+        <f>(C15-B15)</f>
         <v>7</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E15" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>43903</v>
-      </c>
-      <c r="C16" s="6" t="n">
-        <v>43913</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <f aca="false">(C16-B16)</f>
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43920</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43926</v>
+      </c>
+      <c r="D16" s="9">
+        <f>(C16-B16)</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>43913</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>43920</v>
-      </c>
-      <c r="D17" s="9" t="n">
-        <f aca="false">(C17-B17)</f>
-        <v>7</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43854</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43862</v>
+      </c>
+      <c r="D17" s="9">
+        <f>(C17-B17)</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>43920</v>
-      </c>
-      <c r="C18" s="6" t="n">
-        <v>43926</v>
-      </c>
-      <c r="D18" s="9" t="n">
-        <f aca="false">(C18-B18)</f>
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <v>43857</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43863</v>
+      </c>
+      <c r="D18" s="9">
+        <f>(C18-B18)</f>
         <v>6</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6">
+        <v>43926</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43933</v>
+      </c>
+      <c r="D19" s="9">
+        <f>(C19-B19)</f>
+        <v>7</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
         <v>43913</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C20" s="6">
         <v>43949</v>
       </c>
-      <c r="D19" s="9" t="n">
-        <f aca="false">(C19-B19)</f>
+      <c r="D20" s="9">
+        <f>(C20-B20)</f>
         <v>36</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E20" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>